--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2131,7 +2131,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-date-of-birth.xlsx
+++ b/output/StructureDefinition-cde-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
